--- a/reports/cip_management_report/CIP Dummy Report.xlsx
+++ b/reports/cip_management_report/CIP Dummy Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\Lumo_reports\reports\cip_management_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EE1F93-744D-4355-A495-4EA92D1A3F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869BA6C0-DFCD-4D36-A3FE-312E1B53C009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ECE2B712-0DE4-41CA-92B5-F54CE8EA74E4}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="134">
   <si>
     <t>Deal Pipeline</t>
   </si>
@@ -427,6 +427,21 @@
   </si>
   <si>
     <t>* Won is negative as leaves the pipeline once won</t>
+  </si>
+  <si>
+    <t>€260m</t>
+  </si>
+  <si>
+    <t>€870m</t>
+  </si>
+  <si>
+    <t>€675m</t>
+  </si>
+  <si>
+    <t>€1175m</t>
+  </si>
+  <si>
+    <t>€1490m</t>
   </si>
 </sst>
 </file>
@@ -612,7 +627,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -717,6 +732,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -7073,14 +7096,349 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB4B7AF-F240-4D01-87EF-D6DBAFF280DF}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="50"/>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="12">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+    </row>
+    <row r="8" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="50"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="15">
+        <v>2440</v>
+      </c>
+      <c r="C19" s="16">
+        <v>0.43571428571428572</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0.20333333333333328</v>
+      </c>
+      <c r="E19" s="21">
+        <v>138.67233606557375</v>
+      </c>
+      <c r="F19" s="18">
+        <v>135.61065573770492</v>
+      </c>
+      <c r="G19" s="18">
+        <v>130.61065573770492</v>
+      </c>
+      <c r="H19" s="22">
+        <v>13.867233606557376</v>
+      </c>
+      <c r="I19" s="18">
+        <v>13.471311475409836</v>
+      </c>
+      <c r="J19" s="18">
+        <v>13.678278688524593</v>
+      </c>
+      <c r="K19" s="22">
+        <v>4.0163934426229506</v>
+      </c>
+      <c r="L19" s="18">
+        <v>4.2889344262295088</v>
+      </c>
+      <c r="M19" s="18">
+        <v>4.7274590163934436</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="24">
+        <v>5</v>
+      </c>
+      <c r="D24" s="24">
+        <v>20</v>
+      </c>
+      <c r="E24" s="24">
+        <v>50</v>
+      </c>
+      <c r="F24" s="24">
+        <v>75</v>
+      </c>
+      <c r="G24" s="24">
+        <v>90</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="43">
+        <v>20</v>
+      </c>
+      <c r="D25" s="44">
+        <v>1654.1</v>
+      </c>
+      <c r="E25" s="44">
+        <v>1570</v>
+      </c>
+      <c r="F25" s="44">
+        <v>75</v>
+      </c>
+      <c r="G25" s="44">
+        <v>203.3</v>
+      </c>
+      <c r="H25" s="44">
+        <v>3522.4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38">
+        <v>2006</v>
+      </c>
+      <c r="E26" s="38">
+        <v>282</v>
+      </c>
+      <c r="F26" s="38">
+        <v>250</v>
+      </c>
+      <c r="G26" s="38">
+        <v>157.4</v>
+      </c>
+      <c r="H26" s="38">
+        <v>2695.4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41">
+        <v>30</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="37"/>
+      <c r="D28" s="38">
+        <v>3729.03</v>
+      </c>
+      <c r="E28" s="38">
+        <v>543.5</v>
+      </c>
+      <c r="F28" s="38">
+        <v>102.5</v>
+      </c>
+      <c r="G28" s="38">
+        <v>1365.5</v>
+      </c>
+      <c r="H28" s="38">
+        <v>5740.53</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="26">
+        <v>126</v>
+      </c>
+      <c r="E29" s="26">
+        <v>25</v>
+      </c>
+      <c r="F29" s="26">
+        <v>5</v>
+      </c>
+      <c r="G29" s="26">
+        <v>15</v>
+      </c>
+      <c r="H29" s="35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="29">
+        <v>20</v>
+      </c>
+      <c r="D30" s="30">
+        <v>8236.6299999999992</v>
+      </c>
+      <c r="E30" s="30">
+        <v>2452</v>
+      </c>
+      <c r="F30" s="30">
+        <v>454.5</v>
+      </c>
+      <c r="G30" s="30">
+        <v>1792.2</v>
+      </c>
+      <c r="H30" s="30">
+        <v>12955.33</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7090,7 +7448,7 @@
   <dimension ref="B2:V45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7628,7 +7986,7 @@
   <dimension ref="B2:P33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8937,7 +9295,7 @@
   <dimension ref="B2:O66"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+      <selection activeCell="B4" sqref="B4:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/reports/cip_management_report/CIP Dummy Report.xlsx
+++ b/reports/cip_management_report/CIP Dummy Report.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\Lumo_reports\reports\cip_management_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869BA6C0-DFCD-4D36-A3FE-312E1B53C009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FF3423-C266-42D9-ADBB-5DF7B81E7905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ECE2B712-0DE4-41CA-92B5-F54CE8EA74E4}"/>
+    <workbookView xWindow="31815" yWindow="0" windowWidth="28470" windowHeight="20985" xr2:uid="{ECE2B712-0DE4-41CA-92B5-F54CE8EA74E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Executive Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Deal Pipeline" sheetId="2" r:id="rId2"/>
     <sheet name="Portfolio Metrics" sheetId="3" r:id="rId3"/>
-    <sheet name="Market Benchmark" sheetId="4" r:id="rId4"/>
-    <sheet name="Investor Pipeline" sheetId="5" r:id="rId5"/>
+    <sheet name="ESG" sheetId="6" r:id="rId4"/>
+    <sheet name="WACI" sheetId="7" r:id="rId5"/>
+    <sheet name="Investor Pipeline" sheetId="5" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="206">
   <si>
     <t>Deal Pipeline</t>
   </si>
@@ -276,9 +280,6 @@
     <t>Portfolio Metrics</t>
   </si>
   <si>
-    <t>CI V</t>
-  </si>
-  <si>
     <t>Quarterly Development of PwP</t>
   </si>
   <si>
@@ -429,32 +430,252 @@
     <t>* Won is negative as leaves the pipeline once won</t>
   </si>
   <si>
-    <t>€260m</t>
-  </si>
-  <si>
-    <t>€870m</t>
-  </si>
-  <si>
-    <t>€675m</t>
-  </si>
-  <si>
-    <t>€1175m</t>
-  </si>
-  <si>
-    <t>€1490m</t>
+    <t>ESG Scoring Guidance</t>
+  </si>
+  <si>
+    <t>Utility</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Telecommunications</t>
+  </si>
+  <si>
+    <t>Technology &amp; Electronics</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Leisure</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Financial Services</t>
+  </si>
+  <si>
+    <t>Consumer Goods</t>
+  </si>
+  <si>
+    <t>Capital Goods</t>
+  </si>
+  <si>
+    <t>Basic Industry</t>
+  </si>
+  <si>
+    <t>Banks</t>
+  </si>
+  <si>
+    <t>Automotive</t>
+  </si>
+  <si>
+    <t>Governance</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
+  <si>
+    <t>Environmental</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Portfolio</t>
+  </si>
+  <si>
+    <t>ESG Score</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Asset Repack</t>
+  </si>
+  <si>
+    <t>Benchmark</t>
+  </si>
+  <si>
+    <t>Industry WACI Contribution</t>
+  </si>
+  <si>
+    <t>Industry Carbon Intensity</t>
+  </si>
+  <si>
+    <t>Bond</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>BIP</t>
+  </si>
+  <si>
+    <t>Polynt</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Pfleiderer</t>
+  </si>
+  <si>
+    <t>ABS</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Oaktree</t>
+  </si>
+  <si>
+    <t>Guala Closures</t>
+  </si>
+  <si>
+    <t>Ardagh</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Roquette Freres</t>
+  </si>
+  <si>
+    <t>Multiple</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Ahlstrom</t>
+  </si>
+  <si>
+    <t>CDS</t>
+  </si>
+  <si>
+    <t>European Union</t>
+  </si>
+  <si>
+    <t>XOVER</t>
+  </si>
+  <si>
+    <t>IBOXX</t>
+  </si>
+  <si>
+    <t>WACI Contribution</t>
+  </si>
+  <si>
+    <t>Carbon Intensity</t>
+  </si>
+  <si>
+    <t>Portfolio Weight</t>
+  </si>
+  <si>
+    <t>Asset Type</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Issuer</t>
+  </si>
+  <si>
+    <t>Issuer - Top 10 WACI Contributions</t>
+  </si>
+  <si>
+    <t>TeamSystem</t>
+  </si>
+  <si>
+    <t>Biogroup</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Verisure</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>Nuveen CEF</t>
+  </si>
+  <si>
+    <t>Douglas</t>
+  </si>
+  <si>
+    <t>Sound Point</t>
+  </si>
+  <si>
+    <t>Virgin Media O2</t>
+  </si>
+  <si>
+    <t>Issuer - Top 10 Portfolio Weight</t>
+  </si>
+  <si>
+    <t>Historical</t>
+  </si>
+  <si>
+    <t>WACI Limit</t>
+  </si>
+  <si>
+    <t>WACI Performance</t>
+  </si>
+  <si>
+    <t>Benchmark WACI</t>
+  </si>
+  <si>
+    <t>Portfolio WACI</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>ESG Benchmark</t>
+  </si>
+  <si>
+    <t>WACI Breakdown</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Flagship</t>
+  </si>
+  <si>
+    <t>ESG Portfolio Score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0&quot;m&quot;_-;\-[$€-2]\ * #,##0&quot;m&quot;_-;_-[$€-2]\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0&quot;m&quot;_-;\-[$€-2]\ * #,##0&quot;m&quot;_-;_-[$€-2]\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.00%;\-0.00%;\-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,8 +746,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF423D36"/>
+      <name val="Roboto"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF423D36"/>
+      <name val="Roboto"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF423D36"/>
+      <name val="Roboto"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF423D36"/>
+      <name val="Roboto"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -539,8 +787,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -621,17 +875,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFE3DFD7"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -654,18 +958,18 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -724,26 +1028,55 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="12" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="9" fillId="3" borderId="12" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="12" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{244018E5-F768-4A72-999F-2079070BD96B}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="6">
@@ -1149,6 +1482,608 @@
         <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="423D36"/>
+                </a:solidFill>
+                <a:latin typeface="Roboto"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="423D36"/>
+                </a:solidFill>
+                <a:latin typeface="Roboto"/>
+              </a:rPr>
+              <a:t>Industry WACI Contribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="423D36"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2"/>
+          <c:y val="0.1"/>
+          <c:w val="0.8"/>
+          <c:h val="0.75"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>WACI!$C$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Portfolio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="76000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>WACI!$B$86:$B$105</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Asset Repack</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Index</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Basic Industry</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Services</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Capital Goods</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Consumer Goods</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Real Estate</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Retail</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Utility</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Automotive</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Healthcare</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Media</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Telecommunications</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Transportation</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Leisure</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Banks</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Technology &amp; Electronics</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Financial Services</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Insurance</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Energy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>WACI!$C$86:$C$105</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>7.2817758815748359</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9326284805596607</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8809964593561919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4253609689280307</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9846950240662089</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8258450227244989</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1153338007225631</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.871529897906552</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.47386364415215</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.113639622460026</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0488383150385849</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.86899400189090192</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.81129797168023066</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.67653081368958523</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.56669980682677334</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.17345837109148959</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.14489962448278421</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.1566305067775485E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.8167974688697062E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-203A-41AA-B857-1B9FA6C9769C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>WACI!$D$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Benchmark</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:tint val="77000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>WACI!$B$86:$B$105</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Asset Repack</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Index</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Basic Industry</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Services</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Capital Goods</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Consumer Goods</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Real Estate</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Retail</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Utility</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Automotive</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Healthcare</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Media</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Telecommunications</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Transportation</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Leisure</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Banks</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Technology &amp; Electronics</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Financial Services</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Insurance</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Energy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>WACI!$D$86:$D$105</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.012913465235961</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4384090399139424</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3940306171015449</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.174624347150746</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.153276567955055</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.002651570693837</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.701049796102119</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.329973468379023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.2780058494100901</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.87829656862098437</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.216557130057828</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2601118155828601</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4604156840945262</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.2053395263651</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.46559597997508539</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.71069801275884192</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.9038575671532447E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.1684177105027178</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-203A-41AA-B857-1B9FA6C9769C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="-10"/>
+        <c:axId val="50030001"/>
+        <c:axId val="50030002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50030001"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="423D36"/>
+                </a:solidFill>
+                <a:latin typeface="Roboto"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50030002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50030002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="423D36"/>
+                </a:solidFill>
+                <a:latin typeface="Roboto"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50030001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1"/>
+          <c:y val="0.97499999999999998"/>
+          <c:w val="0.4"/>
+          <c:h val="0.1"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="423D36"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3278,6 +4213,2473 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="423D36"/>
+                </a:solidFill>
+                <a:latin typeface="Roboto"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="423D36"/>
+                </a:solidFill>
+                <a:latin typeface="Roboto"/>
+              </a:rPr>
+              <a:t>ESG Scores (Industry)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="423D36"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.0000000000000001E-3"/>
+          <c:y val="5.0000000000000001E-3"/>
+          <c:w val="0.95"/>
+          <c:h val="0.65"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ESG!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ESG Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ESG!$B$10:$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>Automotive</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Banks</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Basic Industry</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Capital Goods</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Consumer Goods</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Financial Services</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Healthcare</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Insurance</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Leisure</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Media</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Real Estate</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Retail</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Services</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Technology &amp; Electronics</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Telecommunications</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Transportation</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Utility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ESG!$C$10:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2.5316017992941271</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3916373500804982</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4832478973311249</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3582631833566579</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.556101621544506</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3631340998418811</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6860142233747322</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.443156591730796</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.582617316114677</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.616148424288208</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.621424081320916</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5949127549574418</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5572082956400082</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.797927801356014</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4916229910959311</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6132800410901269</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7541666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6903-44B2-B6D5-4744DD33664C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ESG!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Environmental</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="86000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ESG!$B$10:$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>Automotive</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Banks</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Basic Industry</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Capital Goods</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Consumer Goods</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Financial Services</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Healthcare</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Insurance</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Leisure</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Media</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Real Estate</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Retail</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Services</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Technology &amp; Electronics</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Telecommunications</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Transportation</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Utility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ESG!$D$10:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1119954983772282</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.213685205315123</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.261139329998521</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1035586109454369</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7839669198091239</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.564765793930996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.266318166231466</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4985679656293529</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.313678798413672</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5691135059412118</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2249469452827499</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2416550351114219</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7425314307929791</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1365683832892892</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6903-44B2-B6D5-4744DD33664C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ESG!$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Social</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:tint val="86000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ESG!$B$10:$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>Automotive</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Banks</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Basic Industry</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Capital Goods</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Consumer Goods</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Financial Services</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Healthcare</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Insurance</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Leisure</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Media</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Real Estate</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Retail</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Services</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Technology &amp; Electronics</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Telecommunications</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Transportation</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Utility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ESG!$E$10:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2.3271724331841162</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3900560783132319</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2424733706179318</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.261139329998521</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3313239708525382</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1807614429998878</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.636998432082815</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.545780467101495</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5532165507164848</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5916196510352911</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6020096803029249</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.748565720069835</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2813528389424529</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.893902208605613</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.4141587425951618</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6903-44B2-B6D5-4744DD33664C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ESG!$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Governance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:tint val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ESG!$B$10:$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>Automotive</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Banks</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Basic Industry</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Capital Goods</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Consumer Goods</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Financial Services</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Healthcare</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Insurance</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Leisure</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Media</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Real Estate</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Retail</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Services</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Technology &amp; Electronics</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Telecommunications</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Transportation</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Utility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ESG!$F$10:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2.6635862165920581</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7867894475695079</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.301348494520119</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9142487719999828</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6991435236523849</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7410437018336369</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9993749139747279</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7607714476409608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4985679656293529</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2395377523028119</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4331345195261229</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.972667368946154</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.090158698266928</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6758419989454549</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.368525941877897</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6903-44B2-B6D5-4744DD33664C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="50010001"/>
+        <c:axId val="50010002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50010001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="423D36"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50010002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50010002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="423D36"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50010001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.5000000000000001E-3"/>
+          <c:y val="0.97250000000000003"/>
+          <c:w val="0.4"/>
+          <c:h val="0.1"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="423D36"/>
+                </a:solidFill>
+                <a:latin typeface="Roboto"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="423D36"/>
+                </a:solidFill>
+                <a:latin typeface="Roboto"/>
+              </a:rPr>
+              <a:t>Historical WACI Performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="423D36"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.05"/>
+          <c:y val="0.1"/>
+          <c:w val="0.9"/>
+          <c:h val="0.6"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]HistoricalWACI!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Portfolio WACI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="58000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]HistoricalWACI!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45382</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45473</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45535</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]HistoricalWACI!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>73.168720382825157</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.444832423799724</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.557090074515742</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.027164020044808</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.179250638179987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.665004820477243</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49.755876688874238</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48.619731988661172</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49.661948460888183</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43.193248703784917</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42.421612635363942</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44.33612198690755</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F9B3-4F80-827B-B4F06A4AFD5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]HistoricalWACI!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Benchmark WACI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="86000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]HistoricalWACI!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45382</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45473</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45535</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]HistoricalWACI!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>103.3986342311013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101.0173900805292</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101.1342581680248</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101.3729362493347</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>102.399898596059</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>106.1289640998605</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>103.14486249407371</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>101.0838424024009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>101.71674159361871</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>103.10843521090121</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>103.46247327113559</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>104.8894057255719</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F9B3-4F80-827B-B4F06A4AFD5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="50010001"/>
+        <c:axId val="50010002"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]HistoricalWACI!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WACI Performance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="86000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="86000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:tint val="86000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]HistoricalWACI!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45382</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45473</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45535</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]HistoricalWACI!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.2923627964051313</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29274719563784768</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36166941604238217</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4966391829221608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53926467423283397</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53203156893394621</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51761168238764177</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.51901579092024719</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51176229514607519</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58108908727558406</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.58998068290719186</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.577306004546287</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F9B3-4F80-827B-B4F06A4AFD5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]HistoricalWACI!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WACI Limit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="58000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="58000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:tint val="58000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]HistoricalWACI!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45382</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45473</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45535</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]HistoricalWACI!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F9B3-4F80-827B-B4F06A4AFD5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="50010003"/>
+        <c:axId val="50010004"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="50010001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="423D36"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="423D36"/>
+                </a:solidFill>
+                <a:latin typeface="Roboto"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50010002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="1"/>
+        <c:majorTimeUnit val="months"/>
+        <c:minorUnit val="1"/>
+        <c:minorTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="50010002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="423D36"/>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="800" b="0" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="423D36"/>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto"/>
+                  </a:rPr>
+                  <a:t>Portfolio &amp; Benchmark Total WACI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="423D36"/>
+                  </a:solidFill>
+                  <a:latin typeface="Roboto"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="423D36"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="423D36"/>
+                </a:solidFill>
+                <a:latin typeface="Roboto"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50010001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50010004"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="423D36"/>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="800" b="0" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="423D36"/>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto"/>
+                  </a:rPr>
+                  <a:t>WACI Performance &amp; Limit</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="423D36"/>
+                  </a:solidFill>
+                  <a:latin typeface="Roboto"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="423D36"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="423D36"/>
+                </a:solidFill>
+                <a:latin typeface="Roboto"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50010003"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="50010003"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="50010004"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.05"/>
+          <c:y val="0.97499999999999998"/>
+          <c:w val="0.4"/>
+          <c:h val="0.1"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="423D36"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="423D36"/>
+                </a:solidFill>
+                <a:latin typeface="Roboto"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="423D36"/>
+                </a:solidFill>
+                <a:latin typeface="Roboto"/>
+              </a:rPr>
+              <a:t>Industry Carbon Intensity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="423D36"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2"/>
+          <c:y val="0.1"/>
+          <c:w val="0.8"/>
+          <c:h val="0.75"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>WACI!$C$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Portfolio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="76000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>WACI!$B$61:$B$80</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Basic Industry</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Utility</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Capital Goods</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Consumer Goods</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Real Estate</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Index</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Asset Repack</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Automotive</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Retail</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Services</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Media</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Leisure</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Transportation</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Telecommunications</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Healthcare</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Technology &amp; Electronics</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Financial Services</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Banks</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Insurance</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Energy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>WACI!$C$61:$C$80</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>303.13249581598512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>157.79403400000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.641610758088945</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.649430403504212</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.579859502592043</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.356748000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.017946720392658</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.258659572579873</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.464478326114808</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47.245198386439327</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.241859080208432</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.171471743240279</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23.117062688393439</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.472102778621739</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.00959725252558</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.5190547762788338</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.229454230466327</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.525099091926553</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.84478377796202764</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8E83-4430-B462-D29FB4A2C75E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>WACI!$D$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Benchmark</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:tint val="77000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>WACI!$B$61:$B$80</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Basic Industry</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Utility</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Capital Goods</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Consumer Goods</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Real Estate</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Index</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Asset Repack</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Automotive</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Retail</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Services</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Media</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Leisure</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Transportation</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Telecommunications</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Healthcare</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Technology &amp; Electronics</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Financial Services</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Banks</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Insurance</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Energy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>WACI!$D$61:$D$80</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>340.90965281911662</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>721.06896651273712</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.529355002125257</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.861181856849207</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.833375405620401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47.89996977238291</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.007701109902069</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.050303425254263</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.87973643357412</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>73.84378095672696</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>227.77554114722301</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.629707212968651</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.301577238979561</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.3937464009491691</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.670543289025989</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.1825524457946344</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.9134829800146962</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>514.2030322995638</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8E83-4430-B462-D29FB4A2C75E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="-10"/>
+        <c:axId val="50020001"/>
+        <c:axId val="50020002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50020001"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="423D36"/>
+                </a:solidFill>
+                <a:latin typeface="Roboto"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50020002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50020002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="423D36"/>
+                </a:solidFill>
+                <a:latin typeface="Roboto"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50020001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1"/>
+          <c:y val="0.97499999999999998"/>
+          <c:w val="0.4"/>
+          <c:h val="0.1"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="423D36"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3315,6 +6717,12 @@
     <a:lumMod val="50000"/>
     <a:lumOff val="50000"/>
   </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
 </cs:colorStyle>
 </file>
 
@@ -3518,6 +6926,24 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -4023,6 +7449,446 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="102">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:lineWidthScale>3</cs:lineWidthScale>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="95000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="5000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -6544,6 +10410,1326 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="102">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:lineWidthScale>3</cs:lineWidthScale>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="95000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="5000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="102">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:lineWidthScale>3</cs:lineWidthScale>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="95000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="5000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="102">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:lineWidthScale>3</cs:lineWidthScale>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="95000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="5000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -6777,6 +11963,444 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9316750" cy="3911253"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="ESG_Scoring_Guidance.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62546598-FF7B-4805-848C-87E14967CDA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5334000"/>
+          <a:ext cx="9316750" cy="3911253"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45A0EE4D-FA77-4BB4-A37C-F6604A62A93C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61161E51-CAF2-432D-BEEA-43CB2D41D070}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D180E547-F5A6-492B-A320-6F550276B05D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC401EB4-FA17-45EC-B8EB-DEE2A40D71E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="HistoricalWACI"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Portfolio WACI</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>Benchmark WACI</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>WACI Performance</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>WACI Limit</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>45291</v>
+          </cell>
+          <cell r="B2">
+            <v>73.168720382825157</v>
+          </cell>
+          <cell r="C2">
+            <v>103.3986342311013</v>
+          </cell>
+          <cell r="D2">
+            <v>0.2923627964051313</v>
+          </cell>
+          <cell r="E2">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>45322</v>
+          </cell>
+          <cell r="B3">
+            <v>71.444832423799724</v>
+          </cell>
+          <cell r="C3">
+            <v>101.0173900805292</v>
+          </cell>
+          <cell r="D3">
+            <v>0.29274719563784768</v>
+          </cell>
+          <cell r="E3">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>45351</v>
+          </cell>
+          <cell r="B4">
+            <v>64.557090074515742</v>
+          </cell>
+          <cell r="C4">
+            <v>101.1342581680248</v>
+          </cell>
+          <cell r="D4">
+            <v>0.36166941604238217</v>
+          </cell>
+          <cell r="E4">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>45382</v>
+          </cell>
+          <cell r="B5">
+            <v>51.027164020044808</v>
+          </cell>
+          <cell r="C5">
+            <v>101.3729362493347</v>
+          </cell>
+          <cell r="D5">
+            <v>0.4966391829221608</v>
+          </cell>
+          <cell r="E5">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>45412</v>
+          </cell>
+          <cell r="B6">
+            <v>47.179250638179987</v>
+          </cell>
+          <cell r="C6">
+            <v>102.399898596059</v>
+          </cell>
+          <cell r="D6">
+            <v>0.53926467423283397</v>
+          </cell>
+          <cell r="E6">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>45443</v>
+          </cell>
+          <cell r="B7">
+            <v>49.665004820477243</v>
+          </cell>
+          <cell r="C7">
+            <v>106.1289640998605</v>
+          </cell>
+          <cell r="D7">
+            <v>0.53203156893394621</v>
+          </cell>
+          <cell r="E7">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>45473</v>
+          </cell>
+          <cell r="B8">
+            <v>49.755876688874238</v>
+          </cell>
+          <cell r="C8">
+            <v>103.14486249407371</v>
+          </cell>
+          <cell r="D8">
+            <v>0.51761168238764177</v>
+          </cell>
+          <cell r="E8">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>45504</v>
+          </cell>
+          <cell r="B9">
+            <v>48.619731988661172</v>
+          </cell>
+          <cell r="C9">
+            <v>101.0838424024009</v>
+          </cell>
+          <cell r="D9">
+            <v>0.51901579092024719</v>
+          </cell>
+          <cell r="E9">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>45535</v>
+          </cell>
+          <cell r="B10">
+            <v>49.661948460888183</v>
+          </cell>
+          <cell r="C10">
+            <v>101.71674159361871</v>
+          </cell>
+          <cell r="D10">
+            <v>0.51176229514607519</v>
+          </cell>
+          <cell r="E10">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>45565</v>
+          </cell>
+          <cell r="B11">
+            <v>43.193248703784917</v>
+          </cell>
+          <cell r="C11">
+            <v>103.10843521090121</v>
+          </cell>
+          <cell r="D11">
+            <v>0.58108908727558406</v>
+          </cell>
+          <cell r="E11">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>45596</v>
+          </cell>
+          <cell r="B12">
+            <v>42.421612635363942</v>
+          </cell>
+          <cell r="C12">
+            <v>103.46247327113559</v>
+          </cell>
+          <cell r="D12">
+            <v>0.58998068290719186</v>
+          </cell>
+          <cell r="E12">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>45625</v>
+          </cell>
+          <cell r="B13">
+            <v>44.33612198690755</v>
+          </cell>
+          <cell r="C13">
+            <v>104.8894057255719</v>
+          </cell>
+          <cell r="D13">
+            <v>0.577306004546287</v>
+          </cell>
+          <cell r="E13">
+            <v>0.2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7099,19 +12723,21 @@
   <dimension ref="B2:M31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="69" t="s">
         <v>51</v>
       </c>
       <c r="C2"/>
@@ -7122,10 +12748,10 @@
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="71">
         <v>5600</v>
       </c>
     </row>
@@ -7138,67 +12764,118 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="8" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="50" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="50"/>
+      <c r="F8" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="G8" s="50"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="52" t="s">
-        <v>129</v>
+      <c r="C9" s="71">
+        <v>260</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" s="42"/>
+      <c r="H9" s="73">
+        <v>2.524217936762152</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="52" t="s">
-        <v>130</v>
+      <c r="C10" s="46">
+        <v>870</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="72">
+        <v>2.2421839852689738</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="B11" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="52" t="s">
-        <v>131</v>
+      <c r="C11" s="46">
+        <v>675</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="72">
+        <v>2.525281963294201</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B12" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="52" t="s">
-        <v>132</v>
+      <c r="C12" s="46">
+        <v>1175</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="68">
+        <v>2.9119783786305011</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="B13" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="52" t="s">
-        <v>129</v>
+      <c r="C13" s="70">
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="53" t="s">
-        <v>133</v>
+      <c r="C14" s="3">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="15">
+        <v>4730</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="50" t="s">
         <v>77</v>
       </c>
+      <c r="C17" s="52"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
     </row>
     <row r="18" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
@@ -7278,7 +12955,7 @@
     </row>
     <row r="22" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -7292,7 +12969,7 @@
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" s="24">
         <v>5</v>
@@ -7315,102 +12992,102 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="43">
+        <v>96</v>
+      </c>
+      <c r="C25" s="54">
         <v>20</v>
       </c>
-      <c r="D25" s="44">
+      <c r="D25" s="54">
         <v>1654.1</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="54">
         <v>1570</v>
       </c>
-      <c r="F25" s="44">
+      <c r="F25" s="54">
         <v>75</v>
       </c>
-      <c r="G25" s="44">
+      <c r="G25" s="54">
         <v>203.3</v>
       </c>
-      <c r="H25" s="44">
+      <c r="H25" s="54">
         <v>3522.4</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="38">
+        <v>94</v>
+      </c>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55">
         <v>2006</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="55">
         <v>282</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F26" s="55">
         <v>250</v>
       </c>
-      <c r="G26" s="38">
+      <c r="G26" s="55">
         <v>157.4</v>
       </c>
-      <c r="H26" s="38">
+      <c r="H26" s="55">
         <v>2695.4</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="41">
+        <v>97</v>
+      </c>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55">
         <v>30</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41">
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="38">
+        <v>95</v>
+      </c>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55">
         <v>3729.03</v>
       </c>
-      <c r="E28" s="38">
+      <c r="E28" s="55">
         <v>543.5</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F28" s="55">
         <v>102.5</v>
       </c>
-      <c r="G28" s="38">
+      <c r="G28" s="55">
         <v>1365.5</v>
       </c>
-      <c r="H28" s="38">
+      <c r="H28" s="55">
         <v>5740.53</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="26">
+        <v>93</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3">
         <v>126</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E29" s="3">
         <v>25</v>
       </c>
-      <c r="F29" s="26">
+      <c r="F29" s="3">
         <v>5</v>
       </c>
-      <c r="G29" s="26">
+      <c r="G29" s="3">
         <v>15</v>
       </c>
-      <c r="H29" s="35">
+      <c r="H29" s="3">
         <v>171</v>
       </c>
     </row>
@@ -7418,22 +13095,22 @@
       <c r="B30" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="53">
         <v>20</v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30" s="53">
         <v>8236.6299999999992</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="53">
         <v>2452</v>
       </c>
-      <c r="F30" s="30">
+      <c r="F30" s="53">
         <v>454.5</v>
       </c>
-      <c r="G30" s="30">
+      <c r="G30" s="53">
         <v>1792.2</v>
       </c>
-      <c r="H30" s="30">
+      <c r="H30" s="53">
         <v>12955.33</v>
       </c>
     </row>
@@ -7448,7 +13125,7 @@
   <dimension ref="B2:V45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7472,19 +13149,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
     </row>
     <row r="5" spans="2:22" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="str">
@@ -7986,7 +13663,7 @@
   <dimension ref="B2:P33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7999,23 +13676,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
     </row>
     <row r="3" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="7"/>
@@ -9271,31 +14948,1531 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85876E88-EFA0-42A7-B947-953498FC3CEB}">
-  <dimension ref="C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64B6386-940D-4DED-B12B-EF717DF1E14B}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:R57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="57" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="57" customWidth="1"/>
+    <col min="3" max="6" width="12.28515625" style="57" customWidth="1"/>
+    <col min="7" max="18" width="9.7109375" style="57" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="57"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="75">
+        <v>2.524217936762152</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="74" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="75">
+        <v>2.2421839852689738</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="75">
+        <v>2.525281963294201</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="61">
+        <v>2.9119783786305011</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="75">
+        <v>2.5316017992941271</v>
+      </c>
+      <c r="D10" s="75">
+        <v>2</v>
+      </c>
+      <c r="E10" s="75">
+        <v>2.3271724331841162</v>
+      </c>
+      <c r="F10" s="75">
+        <v>2.6635862165920581</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="75">
+        <v>2.3916373500804982</v>
+      </c>
+      <c r="D11" s="75">
+        <v>2.1119954983772282</v>
+      </c>
+      <c r="E11" s="75">
+        <v>2.3900560783132319</v>
+      </c>
+      <c r="F11" s="75">
+        <v>2.7867894475695079</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="75">
+        <v>2.4832478973311249</v>
+      </c>
+      <c r="D12" s="75">
+        <v>2.213685205315123</v>
+      </c>
+      <c r="E12" s="75">
+        <v>2.2424733706179318</v>
+      </c>
+      <c r="F12" s="75">
+        <v>2.301348494520119</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="75">
+        <v>2.3582631833566579</v>
+      </c>
+      <c r="D13" s="75">
+        <v>2.261139329998521</v>
+      </c>
+      <c r="E13" s="75">
+        <v>2.261139329998521</v>
+      </c>
+      <c r="F13" s="75">
+        <v>2.9142487719999828</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="75">
+        <v>2.556101621544506</v>
+      </c>
+      <c r="D14" s="75">
+        <v>2.1035586109454369</v>
+      </c>
+      <c r="E14" s="75">
+        <v>2.3313239708525382</v>
+      </c>
+      <c r="F14" s="75">
+        <v>2.6991435236523849</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="75">
+        <v>2.3631340998418811</v>
+      </c>
+      <c r="D15" s="75">
+        <v>1.7839669198091239</v>
+      </c>
+      <c r="E15" s="75">
+        <v>2.1807614429998878</v>
+      </c>
+      <c r="F15" s="75">
+        <v>2.7410437018336369</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="75">
+        <v>2.6860142233747322</v>
+      </c>
+      <c r="D16" s="75">
+        <v>2.564765793930996</v>
+      </c>
+      <c r="E16" s="75">
+        <v>2.636998432082815</v>
+      </c>
+      <c r="F16" s="75">
+        <v>2.9993749139747279</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B17" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="75">
+        <v>2.443156591730796</v>
+      </c>
+      <c r="D17" s="75">
+        <v>2.266318166231466</v>
+      </c>
+      <c r="E17" s="75">
+        <v>2.545780467101495</v>
+      </c>
+      <c r="F17" s="75">
+        <v>2.7607714476409608</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B18" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="75">
+        <v>2.582617316114677</v>
+      </c>
+      <c r="D18" s="75">
+        <v>2.4985679656293529</v>
+      </c>
+      <c r="E18" s="75">
+        <v>3</v>
+      </c>
+      <c r="F18" s="75">
+        <v>2.4985679656293529</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B19" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="75">
+        <v>2.616148424288208</v>
+      </c>
+      <c r="D19" s="75">
+        <v>2.313678798413672</v>
+      </c>
+      <c r="E19" s="75">
+        <v>2.5532165507164848</v>
+      </c>
+      <c r="F19" s="75">
+        <v>3.2395377523028119</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B20" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="75">
+        <v>2.621424081320916</v>
+      </c>
+      <c r="D20" s="75">
+        <v>2.5691135059412118</v>
+      </c>
+      <c r="E20" s="75">
+        <v>2.5916196510352911</v>
+      </c>
+      <c r="F20" s="75">
+        <v>3.4331345195261229</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B21" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="75">
+        <v>2.5949127549574418</v>
+      </c>
+      <c r="D21" s="75">
+        <v>2.2249469452827499</v>
+      </c>
+      <c r="E21" s="75">
+        <v>2.6020096803029249</v>
+      </c>
+      <c r="F21" s="75">
+        <v>2.972667368946154</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B22" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="75">
+        <v>2.5572082956400082</v>
+      </c>
+      <c r="D22" s="75">
+        <v>2.2416550351114219</v>
+      </c>
+      <c r="E22" s="75">
+        <v>2.748565720069835</v>
+      </c>
+      <c r="F22" s="75">
+        <v>3.090158698266928</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B23" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="75">
+        <v>2.797927801356014</v>
+      </c>
+      <c r="D23" s="75">
+        <v>2.7425314307929791</v>
+      </c>
+      <c r="E23" s="75">
+        <v>2.2813528389424529</v>
+      </c>
+      <c r="F23" s="75">
+        <v>2.6758419989454549</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B24" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="75">
+        <v>2.4916229910959311</v>
+      </c>
+      <c r="D24" s="75">
+        <v>2.1365683832892892</v>
+      </c>
+      <c r="E24" s="75">
+        <v>2.893902208605613</v>
+      </c>
+      <c r="F24" s="75">
+        <v>3.368525941877897</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B25" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="75">
+        <v>2.6132800410901269</v>
+      </c>
+      <c r="D25" s="75">
+        <v>2</v>
+      </c>
+      <c r="E25" s="75">
+        <v>2.4141587425951618</v>
+      </c>
+      <c r="F25" s="75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B26" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="61">
+        <v>1.7541666667</v>
+      </c>
+      <c r="D26" s="61">
+        <v>1</v>
+      </c>
+      <c r="E26" s="61">
+        <v>2</v>
+      </c>
+      <c r="F26" s="61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+    </row>
+    <row r="29" spans="2:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="63"/>
+    </row>
+    <row r="57" spans="2:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="63"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="63"/>
+      <c r="J57" s="63"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="63"/>
+      <c r="M57" s="63"/>
+      <c r="N57" s="63"/>
+      <c r="O57" s="63"/>
+      <c r="P57" s="63"/>
+      <c r="Q57" s="63"/>
+      <c r="R57" s="63"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F715BBF3-ADFC-4443-8B16-6E83FAF16864}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:H108"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" style="57" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="57" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="57" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="57" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="57" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="57" customWidth="1"/>
+    <col min="7" max="8" width="15.7109375" style="57" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="57"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="64" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>199</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="65">
+        <v>44.33612198690755</v>
+      </c>
+      <c r="F5" s="65">
+        <v>104.8894057255719</v>
+      </c>
+      <c r="G5" s="66">
+        <v>0.577306004546287</v>
+      </c>
+      <c r="H5" s="66">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+    </row>
+    <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="64" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="64" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="58" t="s">
+        <v>182</v>
+      </c>
+      <c r="E32" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="F32" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="G32" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="H32" s="59" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="74" t="s">
+        <v>176</v>
+      </c>
+      <c r="C33" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="E33" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="F33" s="79">
+        <v>8.8526696300943772E-2</v>
+      </c>
+      <c r="G33" s="75">
+        <v>93.742518583333336</v>
+      </c>
+      <c r="H33" s="75">
+        <v>8.2963427887167054</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="74" t="s">
+        <v>177</v>
+      </c>
+      <c r="C34" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="F34" s="79">
+        <v>6.4191342788265673E-2</v>
+      </c>
+      <c r="G34" s="75">
+        <v>141.23065066666661</v>
+      </c>
+      <c r="H34" s="75">
+        <v>9.0560005615065133</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="74" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="74" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35" s="79">
+        <v>2.4088498420816978E-2</v>
+      </c>
+      <c r="G35" s="75">
+        <v>20.227806999999991</v>
+      </c>
+      <c r="H35" s="75">
+        <v>0.48725749697609061</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="E36" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36" s="79">
+        <v>2.4023291823902809E-2</v>
+      </c>
+      <c r="G36" s="75">
+        <v>70.337973182527321</v>
+      </c>
+      <c r="H36" s="75">
+        <v>1.688467351421165</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="74" t="s">
+        <v>192</v>
+      </c>
+      <c r="C37" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="E37" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="F37" s="79">
+        <v>2.0555242256148298E-2</v>
+      </c>
+      <c r="G37" s="75">
+        <v>54.738375411210761</v>
+      </c>
+      <c r="H37" s="75">
+        <v>1.126608572482515</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="C38" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="E38" s="74" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" s="79">
+        <v>1.7163399562439761E-2</v>
+      </c>
+      <c r="G38" s="75">
+        <v>11.714014000000001</v>
+      </c>
+      <c r="H38" s="75">
+        <v>0.20105230276201319</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="C39" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="74" t="s">
+        <v>189</v>
+      </c>
+      <c r="F39" s="79">
+        <v>1.7097440987779471E-2</v>
+      </c>
+      <c r="G39" s="75">
+        <v>64.69605</v>
+      </c>
+      <c r="H39" s="75">
+        <v>1.124836829246991</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="74" t="s">
+        <v>188</v>
+      </c>
+      <c r="C40" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="E40" s="74" t="s">
+        <v>171</v>
+      </c>
+      <c r="F40" s="79">
+        <v>1.5787199390843221E-2</v>
+      </c>
+      <c r="G40" s="75">
+        <v>16.497714999999999</v>
+      </c>
+      <c r="H40" s="75">
+        <v>0.26045271619830512</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="C41" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="E41" s="74" t="s">
+        <v>171</v>
+      </c>
+      <c r="F41" s="79">
+        <v>1.478799333650568E-2</v>
+      </c>
+      <c r="G41" s="75">
+        <v>2.7169979999999998</v>
+      </c>
+      <c r="H41" s="75">
+        <v>4.0178948319299253E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="76" t="s">
+        <v>185</v>
+      </c>
+      <c r="C42" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="E42" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="F42" s="77">
+        <v>1.3471509568725551E-2</v>
+      </c>
+      <c r="G42" s="78">
+        <v>5.0815410000000014</v>
+      </c>
+      <c r="H42" s="78">
+        <v>6.845602820537118E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="64" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="58" t="s">
+        <v>182</v>
+      </c>
+      <c r="E46" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="F46" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="G46" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="H46" s="59" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="74" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="D47" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="F47" s="79">
+        <v>6.4191342788265673E-2</v>
+      </c>
+      <c r="G47" s="75">
+        <v>141.23065066666661</v>
+      </c>
+      <c r="H47" s="75">
+        <v>9.0560005615065133</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B48" s="74" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="D48" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="E48" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="F48" s="79">
+        <v>8.8526696300943772E-2</v>
+      </c>
+      <c r="G48" s="75">
+        <v>93.742518583333336</v>
+      </c>
+      <c r="H48" s="75">
+        <v>8.2963427887167054</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="C49" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="E49" s="74" t="s">
+        <v>171</v>
+      </c>
+      <c r="F49" s="79">
+        <v>7.126796019539249E-3</v>
+      </c>
+      <c r="G49" s="75">
+        <v>464.86595599999993</v>
+      </c>
+      <c r="H49" s="75">
+        <v>3.313004844840107</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B50" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="E50" s="74" t="s">
+        <v>158</v>
+      </c>
+      <c r="F50" s="79">
+        <v>4.8387111792465116E-3</v>
+      </c>
+      <c r="G50" s="75">
+        <v>476.74887699999999</v>
+      </c>
+      <c r="H50" s="75">
+        <v>2.3068501208331211</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="74" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="E51" s="74" t="s">
+        <v>158</v>
+      </c>
+      <c r="F51" s="79">
+        <v>3.7992478651490752E-3</v>
+      </c>
+      <c r="G51" s="75">
+        <v>528.34172000000012</v>
+      </c>
+      <c r="H51" s="75">
+        <v>2.007301151779191</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="C52" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="E52" s="74" t="s">
+        <v>158</v>
+      </c>
+      <c r="F52" s="79">
+        <v>1.1841595732974761E-2</v>
+      </c>
+      <c r="G52" s="75">
+        <v>160.18082200000001</v>
+      </c>
+      <c r="H52" s="75">
+        <v>1.8967965382995891</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="C53" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="E53" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="F53" s="79">
+        <v>2.4023291823902809E-2</v>
+      </c>
+      <c r="G53" s="75">
+        <v>70.337973182527321</v>
+      </c>
+      <c r="H53" s="75">
+        <v>1.688467351421165</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="D54" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="E54" s="74" t="s">
+        <v>158</v>
+      </c>
+      <c r="F54" s="79">
+        <v>7.1777193608017124E-4</v>
+      </c>
+      <c r="G54" s="75">
+        <v>1988.837452</v>
+      </c>
+      <c r="H54" s="75">
+        <v>1.427531708470795</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B55" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="D55" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="E55" s="74" t="s">
+        <v>158</v>
+      </c>
+      <c r="F55" s="79">
+        <v>7.0824400476403549E-3</v>
+      </c>
+      <c r="G55" s="75">
+        <v>199.84340900000001</v>
+      </c>
+      <c r="H55" s="75">
+        <v>1.4153789631585709</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="E56" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="F56" s="77">
+        <v>3.3921068797769299E-3</v>
+      </c>
+      <c r="G56" s="78">
+        <v>410.02689500000002</v>
+      </c>
+      <c r="H56" s="78">
+        <v>1.3908550514230731</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="64" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B60" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="D60" s="59" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B61" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" s="75">
+        <v>303.13249581598512</v>
+      </c>
+      <c r="D61" s="75">
+        <v>340.90965281911662</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B62" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="75">
+        <v>157.79403400000001</v>
+      </c>
+      <c r="D62" s="75">
+        <v>721.06896651273712</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B63" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" s="75">
+        <v>91.641610758088945</v>
+      </c>
+      <c r="D63" s="75">
+        <v>94.529355002125257</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B64" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="75">
+        <v>71.649430403504212</v>
+      </c>
+      <c r="D64" s="75">
+        <v>33.861181856849207</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="75">
+        <v>68.579859502592043</v>
+      </c>
+      <c r="D65" s="75">
+        <v>85.833375405620401</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="C66" s="75">
+        <v>62.356748000000003</v>
+      </c>
+      <c r="D66" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="C67" s="75">
+        <v>58.017946720392658</v>
+      </c>
+      <c r="D67" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" s="75">
+        <v>52.258659572579873</v>
+      </c>
+      <c r="D68" s="75">
+        <v>47.89996977238291</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" s="75">
+        <v>48.464478326114808</v>
+      </c>
+      <c r="D69" s="75">
+        <v>19.007701109902069</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70" s="75">
+        <v>47.245198386439327</v>
+      </c>
+      <c r="D70" s="75">
+        <v>38.050303425254263</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B71" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" s="75">
+        <v>31.241859080208432</v>
+      </c>
+      <c r="D71" s="75">
+        <v>20.87973643357412</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B72" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="C72" s="75">
+        <v>24.171471743240279</v>
+      </c>
+      <c r="D72" s="75">
+        <v>73.84378095672696</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B73" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" s="75">
+        <v>23.117062688393439</v>
+      </c>
+      <c r="D73" s="75">
+        <v>227.77554114722301</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B74" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" s="75">
+        <v>17.472102778621739</v>
+      </c>
+      <c r="D74" s="75">
+        <v>22.629707212968651</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B75" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="C75" s="75">
+        <v>16.00959725252558</v>
+      </c>
+      <c r="D75" s="75">
+        <v>28.301577238979561</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B76" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="C76" s="75">
+        <v>4.5190547762788338</v>
+      </c>
+      <c r="D76" s="75">
+        <v>8.3937464009491691</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B77" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="C77" s="75">
+        <v>3.229454230466327</v>
+      </c>
+      <c r="D77" s="75">
+        <v>19.670543289025989</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B78" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="C78" s="75">
+        <v>2.525099091926553</v>
+      </c>
+      <c r="D78" s="75">
+        <v>4.1825524457946344</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B79" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="C79" s="75">
+        <v>0.84478377796202764</v>
+      </c>
+      <c r="D79" s="75">
+        <v>2.9134829800146962</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B80" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" s="61">
+        <v>0</v>
+      </c>
+      <c r="D80" s="61">
+        <v>514.2030322995638</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81" s="67"/>
+      <c r="C81" s="62"/>
+      <c r="D81" s="62"/>
+    </row>
+    <row r="83" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B83" s="64" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B85" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="C85" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="D85" s="59" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B86" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="C86" s="75">
+        <v>7.2817758815748359</v>
+      </c>
+      <c r="D86" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B87" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="C87" s="75">
+        <v>5.9326284805596607</v>
+      </c>
+      <c r="D87" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B88" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="C88" s="75">
+        <v>5.8809964593561919</v>
+      </c>
+      <c r="D88" s="75">
+        <v>33.012913465235961</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B89" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="C89" s="75">
+        <v>5.4253609689280307</v>
+      </c>
+      <c r="D89" s="75">
+        <v>4.4384090399139424</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B90" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="C90" s="75">
+        <v>4.9846950240662089</v>
+      </c>
+      <c r="D90" s="75">
+        <v>5.3940306171015449</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B91" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="C91" s="75">
+        <v>3.8258450227244989</v>
+      </c>
+      <c r="D91" s="75">
+        <v>2.174624347150746</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B92" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="C92" s="75">
+        <v>2.1153338007225631</v>
+      </c>
+      <c r="D92" s="75">
+        <v>2.153276567955055</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B93" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="C93" s="75">
+        <v>1.871529897906552</v>
+      </c>
+      <c r="D93" s="75">
+        <v>1.002651570693837</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B94" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="C94" s="75">
+        <v>1.47386364415215</v>
+      </c>
+      <c r="D94" s="75">
+        <v>29.701049796102119</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B95" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="C95" s="75">
+        <v>1.113639622460026</v>
+      </c>
+      <c r="D95" s="75">
+        <v>2.329973468379023</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B96" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="C96" s="75">
+        <v>1.0488383150385849</v>
+      </c>
+      <c r="D96" s="75">
+        <v>3.2780058494100901</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B97" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="C97" s="75">
+        <v>0.86899400189090192</v>
+      </c>
+      <c r="D97" s="75">
+        <v>0.87829656862098437</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B98" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="C98" s="75">
+        <v>0.81129797168023066</v>
+      </c>
+      <c r="D98" s="75">
+        <v>2.216557130057828</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B99" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="C99" s="75">
+        <v>0.67653081368958523</v>
+      </c>
+      <c r="D99" s="75">
+        <v>5.2601118155828601</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B100" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="C100" s="75">
+        <v>0.56669980682677334</v>
+      </c>
+      <c r="D100" s="75">
+        <v>3.4604156840945262</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B101" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="C101" s="75">
+        <v>0.17345837109148959</v>
+      </c>
+      <c r="D101" s="75">
+        <v>0.2053395263651</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B102" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="C102" s="75">
+        <v>0.14489962448278421</v>
+      </c>
+      <c r="D102" s="75">
+        <v>0.46559597997508539</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B103" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="C103" s="75">
+        <v>8.1566305067775485E-2</v>
+      </c>
+      <c r="D103" s="75">
+        <v>0.71069801275884192</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B104" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="C104" s="75">
+        <v>5.8167974688697062E-2</v>
+      </c>
+      <c r="D104" s="75">
+        <v>3.9038575671532447E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B105" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="C105" s="61">
+        <v>0</v>
+      </c>
+      <c r="D105" s="61">
+        <v>8.1684177105027178</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B106" s="67"/>
+      <c r="C106" s="62"/>
+      <c r="D106" s="62"/>
+    </row>
+    <row r="108" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B108" s="64"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA78425-7F9A-4479-B0DB-A29938DE4038}">
   <dimension ref="B2:O66"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H12"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9308,26 +16485,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
+      <c r="B2" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
     </row>
     <row r="4" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -9338,7 +16515,7 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="24">
         <v>5</v>
@@ -9361,7 +16538,7 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="43">
         <v>20</v>
@@ -9384,7 +16561,7 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="38">
@@ -9405,7 +16582,7 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" s="40"/>
       <c r="D9" s="41">
@@ -9420,7 +16597,7 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38">
@@ -9441,7 +16618,7 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="26">
@@ -9486,12 +16663,12 @@
     <row r="13" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" s="31">
         <v>45291</v>
@@ -9535,7 +16712,7 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" s="37">
         <v>2255</v>
@@ -9579,7 +16756,7 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="37">
         <v>10</v>
@@ -9623,7 +16800,7 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" s="37">
         <v>160</v>
@@ -9667,7 +16844,7 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="37">
         <v>169</v>
@@ -9711,7 +16888,7 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" s="6">
         <v>1337</v>
@@ -9813,12 +16990,12 @@
     <row r="24" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C28" s="31">
         <v>45291</v>
@@ -9862,7 +17039,7 @@
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29" s="37">
         <v>1255</v>
@@ -9906,7 +17083,7 @@
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C30" s="37"/>
       <c r="D30" s="37"/>
@@ -9940,7 +17117,7 @@
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C31" s="37">
         <v>99</v>
@@ -9974,7 +17151,7 @@
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C32" s="37">
         <v>159</v>
@@ -10018,7 +17195,7 @@
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C33" s="6">
         <v>905</v>
@@ -10135,7 +17312,7 @@
     </row>
     <row r="37" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -10146,30 +17323,30 @@
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="D39" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="E39" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="E39" s="24" t="s">
+      <c r="F39" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="F39" s="24" t="s">
+      <c r="G39" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="G39" s="24" t="s">
+      <c r="H39" s="24" t="s">
         <v>85</v>
-      </c>
-      <c r="H39" s="24" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C40" s="37">
         <f>C23</f>
@@ -10196,7 +17373,7 @@
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41" s="38">
         <f>D40</f>
@@ -10222,7 +17399,7 @@
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C42" s="37">
         <f>D41</f>
@@ -10248,7 +17425,7 @@
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C43" s="27">
         <f>D42</f>
@@ -10274,7 +17451,7 @@
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" s="49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
@@ -10285,40 +17462,40 @@
     </row>
     <row r="46" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="2:15" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E47" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="G47" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="H47" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="H47" s="9" t="s">
+      <c r="I47" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C48" s="36"/>
       <c r="D48" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E48" s="37">
         <v>60</v>
@@ -10338,11 +17515,11 @@
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E49" s="37">
         <v>100</v>
@@ -10362,11 +17539,11 @@
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C50" s="36"/>
       <c r="D50" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E50" s="37">
         <v>180</v>
@@ -10386,11 +17563,11 @@
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C51" s="36"/>
       <c r="D51" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E51" s="37">
         <v>0</v>
@@ -10410,11 +17587,11 @@
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E52" s="37">
         <v>50</v>
@@ -10434,11 +17611,11 @@
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C53" s="36"/>
       <c r="D53" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E53" s="37">
         <v>0</v>
@@ -10458,11 +17635,11 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E54" s="37">
         <v>40</v>
@@ -10482,11 +17659,11 @@
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C55" s="36"/>
       <c r="D55" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E55" s="37">
         <v>25</v>
@@ -10506,11 +17683,11 @@
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C56" s="36"/>
       <c r="D56" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E56" s="37">
         <v>38</v>
@@ -10530,11 +17707,11 @@
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C57" s="36"/>
       <c r="D57" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E57" s="37">
         <v>10</v>
@@ -10554,11 +17731,11 @@
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C58" s="36"/>
       <c r="D58" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E58" s="37">
         <v>38</v>
@@ -10578,11 +17755,11 @@
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C59" s="36"/>
       <c r="D59" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E59" s="37">
         <v>0</v>
@@ -10602,11 +17779,11 @@
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C60" s="36"/>
       <c r="D60" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E60" s="37">
         <v>0</v>
@@ -10626,11 +17803,11 @@
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C61" s="36"/>
       <c r="D61" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E61" s="37">
         <v>0</v>
@@ -10650,11 +17827,11 @@
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C62" s="36"/>
       <c r="D62" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E62" s="37">
         <v>16</v>
@@ -10674,11 +17851,11 @@
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C63" s="36"/>
       <c r="D63" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E63" s="37">
         <v>0</v>
@@ -10698,11 +17875,11 @@
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C64" s="36"/>
       <c r="D64" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E64" s="37">
         <v>0</v>
@@ -10722,11 +17899,11 @@
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C65" s="36"/>
       <c r="D65" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E65" s="37">
         <v>0</v>
@@ -10746,11 +17923,11 @@
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E66" s="25">
         <v>0</v>
